--- a/Vorlage_Telefonbuch.xlsx
+++ b/Vorlage_Telefonbuch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Geburtstag</t>
-  </si>
-  <si>
-    <t>das</t>
   </si>
 </sst>
 </file>
@@ -858,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,14 +895,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Vorlage_Telefonbuch.xlsx
+++ b/Vorlage_Telefonbuch.xlsx
@@ -532,8 +532,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -858,40 +859,43 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Vorlage_Telefonbuch.xlsx
+++ b/Vorlage_Telefonbuch.xlsx
@@ -859,12 +859,19 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="32.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
